--- a/data/144/SCB/IndOrd2005M.xlsx
+++ b/data/144/SCB/IndOrd2005M.xlsx
@@ -571,7 +571,7 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="1" formatCode="0.0"/>
+    <x:numFmt numFmtId="165" formatCode="0.0"/>
   </x:numFmts>
   <x:fonts count="3">
     <x:font>
@@ -625,41 +625,38 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="5">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+  <x:cellStyleXfs count="4">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="5">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -670,7 +667,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -953,20 +950,18 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
   <x:dimension ref="A1:FB44"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="40.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="37.980625" style="0" customWidth="1"/>
-    <x:col min="3" max="158" width="10.840625000000001" style="0" customWidth="1"/>
+    <x:col min="1" max="158" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:158">
@@ -2441,12 +2436,6 @@
         <x:v>168</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:158">
-      <x:c r="A19" s="0" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:158">
-      <x:c r="A20" s="0" t="s"/>
-    </x:row>
     <x:row r="23" spans="1:158">
       <x:c r="A23" s="0" t="s">
         <x:v>169</x:v>
@@ -2518,6 +2507,9 @@
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:mergeCells count="1">
+    <x:mergeCell ref="A7:FB7"/>
+  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
